--- a/medicine/Enfance/Marcel_Idiers/Marcel_Idiers.xlsx
+++ b/medicine/Enfance/Marcel_Idiers/Marcel_Idiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel Idiers, né le 5 mars 1886 à Auderghem, en Belgique, et mort le 9 février 1960 à Paris 18e[1], est un écrivain belge de langue française, spécialisé dans le roman populaire. Il a également publié sous les pseudonymes Jean Fabien et Sreidi[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcel Idiers, né le 5 mars 1886 à Auderghem, en Belgique, et mort le 9 février 1960 à Paris 18e, est un écrivain belge de langue française, spécialisé dans le roman populaire. Il a également publié sous les pseudonymes Jean Fabien et Sreidi.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Écrivain prolifique, il publie un grand nombre de romans d'amour pour jeunes filles et est l'auteur de quelques romans d'aventures ou historiques. Il a également fait paraître des romans populaires, dont plusieurs romans policiers sous le pseudonyme de Jean Fabien.
-Son personnage le plus connu dans le genre policier est L'Homme au stylo, dont les six aventures paraissent, sous le pseudonyme Jean Fabien, en 1945. « La trentaine, joli garçon, grand, mince et élégant, il habite un appartement trois pièces dans une rue calme d'un quartier parisien du vieux Passy. Insaisissable et mystérieux, ce voleur gentleman, inspiré peu ou prou d'Arsène Lupin, ne tue jamais et choisit ses victimes parmi les individus qui ont acquis leur richesse de façon peu recommandable. Adepte du déguisement, mais uniquement lorsqu'il n'est pas sur un coup, il a l'habitude d'opérer avec un stylo dissimulant une seringue Pravas qui lui permet d'injecter un liquide opiacé capable de provoquer un sommeil immédiat chez la personne qu'il a choisie de neutraliser »[3].
+Son personnage le plus connu dans le genre policier est L'Homme au stylo, dont les six aventures paraissent, sous le pseudonyme Jean Fabien, en 1945. « La trentaine, joli garçon, grand, mince et élégant, il habite un appartement trois pièces dans une rue calme d'un quartier parisien du vieux Passy. Insaisissable et mystérieux, ce voleur gentleman, inspiré peu ou prou d'Arsène Lupin, ne tue jamais et choisit ses victimes parmi les individus qui ont acquis leur richesse de façon peu recommandable. Adepte du déguisement, mais uniquement lorsqu'il n'est pas sur un coup, il a l'habitude d'opérer avec un stylo dissimulant une seringue Pravas qui lui permet d'injecter un liquide opiacé capable de provoquer un sommeil immédiat chez la personne qu'il a choisie de neutraliser ».
 Sa femme Jeanne Philbert est également romancière sous le nom de plume Magali. Le couple a signé quelques romans en collaboration.
 </t>
         </is>
@@ -546,27 +560,187 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série d'aventures Un apprenti parisien autour du monde
-Le Poignard japonais, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 49, 1922
-Le Club des invincibles, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 50, 1922
-Série policière Aventures extraordinaires de Maurice Dupont
-La Bague à secret, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 105, 1923
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série d'aventures Un apprenti parisien autour du monde</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Poignard japonais, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 49, 1922
+Le Club des invincibles, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 50, 1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série policière Aventures extraordinaires de Maurice Dupont</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Bague à secret, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 105, 1923
 Master James Plamerson, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 106, 1923
 Dans la jungle mystérieuse, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 107, 1923
-Seul contre tous, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 108, 1923
-Série d'aventures Le Tour du monde de Bibi, champion poids-plume
-Un concours sensationnel, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 81, 1923
+Seul contre tous, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 108, 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série d'aventures Le Tour du monde de Bibi, champion poids-plume</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un concours sensationnel, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 81, 1923
 Le Document secret, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 82, 1923
 Les Compagnons du lotus, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 83, 1923
-Les Thugs étrangleurs, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 84, 1923
-Série policière Jean Dalbert, roi des détectives
-Le Bouton du mandarin, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 137, 1924
+Les Thugs étrangleurs, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 84, 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série policière Jean Dalbert, roi des détectives</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Bouton du mandarin, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 137, 1924
 L'Insaisissable, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 138, 1924
 L'Énigme de la rue Lafitte, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 139, 1924
-Bas les masques, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 140, 1924
-Autres romans
-Les Pillars mexicains, Éditions de la collection d'aventures no 233, 1917 ; réédition, Paris, Tallandier, coll. « Le Livre d'aventures » no 26, 1937
+Bas les masques, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 140, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Pillars mexicains, Éditions de la collection d'aventures no 233, 1917 ; réédition, Paris, Tallandier, coll. « Le Livre d'aventures » no 26, 1937
 La Machine infernale, Éditions de la collection d'aventures no 234, 1917
 La Jonque sacrée, Éditions de la collection d'aventures no 235, 1917
 Maurice Gillar, détective, Paris, Offenstadt, coll. « d'aventures » no 42, 1917
@@ -661,17 +835,92 @@
 L'Usurpatrice, Paris, Tallandier, coll. « Le Cercle romanesque », (s.d.)
 Rendez-vous sous les palmes, Paris, Tallandier, coll. « Le Cercle romanesque », (s.d.)
 Sa dernière soirée, Paris, Tallandier, coll. « Le Cercle romanesque », (s.d.)
-Les Couleurs du rêve, Collection Floralies (s.d.)
-Romans signés Jean Fabien
-Série policière L'Homme au stylo
-L'Homme au stylo, Paris, S.N.E., 1945
+Les Couleurs du rêve, Collection Floralies (s.d.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans signés Jean Fabien</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série policière L'Homme au stylo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Homme au stylo, Paris, S.N.E., 1945
 L'Inspecteur Furet, Paris, S.N.E., 1945
 L'Espion, Paris, S.N.E., 1945
 Le Persécuteur invisible, Paris, S.N.E., 1945
 Le Loup devenu berge, Paris, S.N.E., 1945
-Le Faux et le Vrai Furet, Paris, S.N.E., 1945
-Autres romans signés Jean Fabien
-Roultaball, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 31, 1916
+Le Faux et le Vrai Furet, Paris, S.N.E., 1945</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Idiers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans signés Jean Fabien</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres romans signés Jean Fabien</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Roultaball, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 31, 1916
 L'Homme au bandeau, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 32, 1916
 L'Insaisissable, Paris, France-Édition, coll. « Les plus beaux romans d'aventures » no 138, 1924
 La Loi du désert, Paris, Éditions de la collection d'aventures no 191, 1920
